--- a/pandapower/test/shortcircuit/SCE_Tests/sc_result_comparison/test_case_1_four_bus_radial_grid_pf_sc_results_2_bus.xlsx
+++ b/pandapower/test/shortcircuit/SCE_Tests/sc_result_comparison/test_case_1_four_bus_radial_grid_pf_sc_results_2_bus.xlsx
@@ -8706,16 +8706,16 @@
         <v>1.028595169205407</v>
       </c>
       <c r="O2">
-        <v>0.3008352244733397</v>
+        <v>0.3008352244733398</v>
       </c>
       <c r="P2">
         <v>0.8956801732223714</v>
       </c>
       <c r="Q2">
-        <v>7.519823840684541</v>
+        <v>7.519823840684555</v>
       </c>
       <c r="R2">
-        <v>-116.5020886521835</v>
+        <v>-116.5020886521836</v>
       </c>
       <c r="S2">
         <v>171.3562885127662</v>
@@ -8765,16 +8765,16 @@
         <v>0.9884825067706162</v>
       </c>
       <c r="O3">
-        <v>0.150417612240569</v>
+        <v>0.1504176122405692</v>
       </c>
       <c r="P3">
-        <v>0.9215286981526682</v>
+        <v>0.9215286981526681</v>
       </c>
       <c r="Q3">
-        <v>3.904287434446768</v>
+        <v>3.90428743444679</v>
       </c>
       <c r="R3">
-        <v>-116.502088644305</v>
+        <v>-116.5020886443051</v>
       </c>
       <c r="S3">
         <v>175.8115568314738</v>
@@ -8788,40 +8788,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1.912620617147884</v>
+        <v>1.912620617147885</v>
       </c>
       <c r="D4">
-        <v>1.912620617147884</v>
+        <v>1.912620617147885</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>22.08504056335918</v>
+        <v>22.0850405633592</v>
       </c>
       <c r="G4">
-        <v>22.08504056335918</v>
+        <v>22.0850405633592</v>
       </c>
       <c r="H4">
-        <v>7.895175922947225</v>
+        <v>7.895175922947228</v>
       </c>
       <c r="I4">
-        <v>7.335082718453467</v>
+        <v>7.33508271845346</v>
       </c>
       <c r="J4">
-        <v>1.477816378918005</v>
+        <v>1.477816378918006</v>
       </c>
       <c r="K4">
-        <v>5.558163489027947</v>
+        <v>5.558163489027939</v>
       </c>
       <c r="L4">
-        <v>1.477816378890885</v>
+        <v>1.477816378890888</v>
       </c>
       <c r="M4">
-        <v>5.558163488980837</v>
+        <v>5.558163488980824</v>
       </c>
       <c r="N4">
-        <v>0.9526279648094104</v>
+        <v>0.9526279648094106</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -8830,7 +8830,7 @@
         <v>0.9526279648097039</v>
       </c>
       <c r="Q4">
-        <v>-3.643686092319228E-13</v>
+        <v>-3.436702122360388E-13</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -8880,19 +8880,19 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9884825067627567</v>
+        <v>0.988482506762757</v>
       </c>
       <c r="O5">
-        <v>0.150417612244531</v>
+        <v>0.1504176122445312</v>
       </c>
       <c r="P5">
         <v>0.921528698161422</v>
       </c>
       <c r="Q5">
-        <v>3.904287434847248</v>
+        <v>3.904287434847268</v>
       </c>
       <c r="R5">
-        <v>-116.502088636477</v>
+        <v>-116.5020886364771</v>
       </c>
       <c r="S5">
         <v>175.8115568311173</v>
